--- a/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -7,10 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from UsageContextType" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE-R67-TypeStru" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from TRE-R04-TypeSavo" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from TRE-R288-TypePro" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:16:26+00:00</t>
+    <t>2024-12-09T16:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
